--- a/data/TopOnePercent/Anhui Normal University.xlsx
+++ b/data/TopOnePercent/Anhui Normal University.xlsx
@@ -184,16 +184,16 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1523.0</v>
+        <v>1438.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>29266.0</v>
+        <v>26145.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>19.22</v>
+        <v>18.18</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="8">
@@ -206,22 +206,22 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>4072.0</v>
+        <v>3925.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>51455.0</v>
+        <v>47042.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>12.64</v>
+        <v>11.99</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>44.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
